--- a/ICNPID_Schema.xlsx
+++ b/ICNPID_Schema.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
     <sheet name="Otro" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="152">
   <si>
     <t>variable</t>
   </si>
@@ -472,14 +472,23 @@
     <t>[0-9]{8}[A-Z]{1}|[A-Z]{1}[0-9]{8}|[A-Z]{1}[0-9]{7}[A-Z]{1}</t>
   </si>
   <si>
-    <t xml:space="preserve"> [.]+</t>
+    <t>[0-9]*</t>
+  </si>
+  <si>
+    <t>(|[.]*)</t>
+  </si>
+  <si>
+    <t>(|[69][0-9]{8})</t>
+  </si>
+  <si>
+    <t>(|[0-9]{5})</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,6 +576,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -603,7 +618,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -682,6 +697,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -994,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1021,7 @@
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="40" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1144,7 +1160,7 @@
       <c r="E6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="40" t="s">
         <v>147</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -1190,8 +1206,8 @@
       <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
-        <v>148</v>
+      <c r="F8" s="40" t="s">
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>120</v>
@@ -1238,8 +1254,8 @@
       <c r="E10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="s">
-        <v>122</v>
+      <c r="F10" s="40" t="s">
+        <v>149</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>128</v>
@@ -1286,8 +1302,8 @@
       <c r="E12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F12" t="s">
-        <v>122</v>
+      <c r="F12" s="40" t="s">
+        <v>149</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>124</v>
@@ -1358,8 +1374,8 @@
       <c r="E15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F15" t="s">
-        <v>126</v>
+      <c r="F15" s="40" t="s">
+        <v>150</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>127</v>
@@ -1407,7 +1423,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>130</v>
@@ -1431,7 +1447,7 @@
         <v>23</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>131</v>
@@ -1933,8 +1949,8 @@
       <c r="E40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F40" t="s">
-        <v>115</v>
+      <c r="F40" s="40" t="s">
+        <v>149</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>96</v>
@@ -1957,8 +1973,8 @@
       <c r="E41" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F41" t="s">
-        <v>115</v>
+      <c r="F41" s="40" t="s">
+        <v>149</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>97</v>
@@ -1981,8 +1997,8 @@
       <c r="E42" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F42" t="s">
-        <v>126</v>
+      <c r="F42" s="40" t="s">
+        <v>150</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>134</v>
@@ -2006,8 +2022,8 @@
       <c r="E43" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F43" t="s">
-        <v>126</v>
+      <c r="F43" s="40" t="s">
+        <v>150</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>91</v>
@@ -2139,7 +2155,7 @@
       <c r="E49" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="40" t="s">
         <v>103</v>
       </c>
       <c r="G49" s="9" t="s">
@@ -2187,8 +2203,8 @@
       <c r="E51" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F51" t="s">
-        <v>136</v>
+      <c r="F51" s="40" t="s">
+        <v>149</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>137</v>
@@ -2232,8 +2248,8 @@
       <c r="E53" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F53" t="s">
-        <v>80</v>
+      <c r="F53" s="40" t="s">
+        <v>149</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>138</v>
@@ -2278,8 +2294,8 @@
       <c r="E55" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F55" t="s">
-        <v>80</v>
+      <c r="F55" s="40" t="s">
+        <v>149</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>140</v>
@@ -2303,7 +2319,7 @@
         <v>15</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>141</v>
@@ -2326,8 +2342,8 @@
       <c r="E57" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F57" t="s">
-        <v>80</v>
+      <c r="F57" s="40" t="s">
+        <v>149</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>142</v>
@@ -2373,6 +2389,9 @@
       </c>
       <c r="E59" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="F59" s="40" t="s">
+        <v>76</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>145</v>
@@ -3842,7 +3861,7 @@
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
       <c r="E206" s="5"/>
-      <c r="F206" s="1"/>
+      <c r="F206" s="5"/>
       <c r="G206" s="4"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -3851,7 +3870,7 @@
       <c r="C207" s="25"/>
       <c r="D207" s="25"/>
       <c r="E207" s="5"/>
-      <c r="F207" s="1"/>
+      <c r="F207" s="5"/>
       <c r="G207" s="4"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -3860,7 +3879,7 @@
       <c r="C208" s="25"/>
       <c r="D208" s="25"/>
       <c r="E208" s="5"/>
-      <c r="F208" s="1"/>
+      <c r="F208" s="5"/>
       <c r="G208" s="4"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -3869,7 +3888,7 @@
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
       <c r="E209" s="5"/>
-      <c r="F209" s="1"/>
+      <c r="F209" s="5"/>
       <c r="G209" s="4"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -3878,7 +3897,7 @@
       <c r="C210" s="25"/>
       <c r="D210" s="25"/>
       <c r="E210" s="5"/>
-      <c r="F210" s="1"/>
+      <c r="F210" s="5"/>
       <c r="G210" s="4"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -3887,7 +3906,7 @@
       <c r="C211" s="25"/>
       <c r="D211" s="25"/>
       <c r="E211" s="5"/>
-      <c r="F211" s="1"/>
+      <c r="F211" s="5"/>
       <c r="G211" s="13"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -3896,7 +3915,7 @@
       <c r="C212" s="25"/>
       <c r="D212" s="25"/>
       <c r="E212" s="5"/>
-      <c r="F212" s="1"/>
+      <c r="F212" s="5"/>
       <c r="G212" s="13"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -3905,7 +3924,7 @@
       <c r="C213" s="25"/>
       <c r="D213" s="25"/>
       <c r="E213" s="5"/>
-      <c r="F213" s="1"/>
+      <c r="F213" s="5"/>
       <c r="G213" s="13"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -3914,7 +3933,7 @@
       <c r="C214" s="25"/>
       <c r="D214" s="25"/>
       <c r="E214" s="5"/>
-      <c r="F214" s="1"/>
+      <c r="F214" s="5"/>
       <c r="G214" s="4"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -4337,7 +4356,7 @@
       <c r="C261" s="25"/>
       <c r="D261" s="25"/>
       <c r="E261" s="5"/>
-      <c r="F261" s="6"/>
+      <c r="F261" s="10"/>
       <c r="G261" s="3"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -4346,7 +4365,7 @@
       <c r="C262" s="25"/>
       <c r="D262" s="25"/>
       <c r="E262" s="5"/>
-      <c r="F262" s="6"/>
+      <c r="F262" s="10"/>
       <c r="G262" s="3"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -4355,7 +4374,7 @@
       <c r="C263" s="25"/>
       <c r="D263" s="25"/>
       <c r="E263" s="5"/>
-      <c r="F263" s="6"/>
+      <c r="F263" s="10"/>
       <c r="G263" s="3"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -4364,7 +4383,7 @@
       <c r="C264" s="25"/>
       <c r="D264" s="25"/>
       <c r="E264" s="5"/>
-      <c r="F264" s="6"/>
+      <c r="F264" s="10"/>
       <c r="G264" s="3"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -4373,7 +4392,7 @@
       <c r="C265" s="25"/>
       <c r="D265" s="25"/>
       <c r="E265" s="5"/>
-      <c r="F265" s="6"/>
+      <c r="F265" s="10"/>
       <c r="G265" s="3"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -4382,7 +4401,7 @@
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
       <c r="E266" s="5"/>
-      <c r="F266" s="6"/>
+      <c r="F266" s="10"/>
       <c r="G266" s="3"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -4391,7 +4410,7 @@
       <c r="C267" s="25"/>
       <c r="D267" s="25"/>
       <c r="E267" s="5"/>
-      <c r="F267" s="6"/>
+      <c r="F267" s="10"/>
       <c r="G267" s="3"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -4400,7 +4419,7 @@
       <c r="C268" s="25"/>
       <c r="D268" s="25"/>
       <c r="E268" s="5"/>
-      <c r="F268" s="6"/>
+      <c r="F268" s="10"/>
       <c r="G268" s="3"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -5894,7 +5913,7 @@
       <c r="G63" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H63" s="40"/>
+      <c r="H63" s="41"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
@@ -5919,7 +5938,7 @@
       <c r="G64" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H64" s="40"/>
+      <c r="H64" s="41"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
@@ -5944,7 +5963,7 @@
       <c r="G65" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H65" s="40"/>
+      <c r="H65" s="41"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
@@ -5969,7 +5988,7 @@
       <c r="G66" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H66" s="40"/>
+      <c r="H66" s="41"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
@@ -5994,7 +6013,7 @@
       <c r="G67" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H67" s="40"/>
+      <c r="H67" s="41"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
@@ -6016,7 +6035,7 @@
       <c r="G68" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H68" s="40"/>
+      <c r="H68" s="41"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
